--- a/outputs-r202/g__UBA3789.xlsx
+++ b/outputs-r202/g__UBA3789.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -601,6 +606,11 @@
           <t>s__UBA3789 sp902776735</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>s__UBA3789 sp902776735</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -663,6 +673,11 @@
         <v>0.9876110105317386</v>
       </c>
       <c r="T3" t="inlineStr">
+        <is>
+          <t>s__UBA3789 sp900314225</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>s__UBA3789 sp900314225</t>
         </is>
